--- a/sheets/Coding Decoded Linklist SDE revision sheet .xlsx
+++ b/sheets/Coding Decoded Linklist SDE revision sheet .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\shad\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F6320-087D-4F99-ABD3-E4320D59283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t xml:space="preserve">Foundational Questions </t>
   </si>
@@ -109,9 +115,6 @@
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort List </t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_T2GtSNMgg8</t>
   </si>
   <si>
@@ -266,13 +269,40 @@
   </si>
   <si>
     <t>Reverse Linked List II **</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>Sort List (Merge Sort)</t>
+  </si>
+  <si>
+    <t>using priority queue</t>
+  </si>
+  <si>
+    <t>find mid and push mid to last into the stack and connect them accordingly</t>
+  </si>
+  <si>
+    <t>using insertinon sort</t>
+  </si>
+  <si>
+    <t>counting every node</t>
+  </si>
+  <si>
+    <t>create every new node for every node</t>
+  </si>
+  <si>
+    <t>find  mid and reverse it to compare</t>
+  </si>
+  <si>
+    <t>r**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -309,14 +339,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -334,13 +356,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -366,13 +381,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -380,6 +388,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,8 +472,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -470,46 +487,47 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,6 +535,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,24 +740,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.26953125" customWidth="1"/>
     <col min="2" max="2" width="27.36328125" customWidth="1"/>
     <col min="3" max="3" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,478 +766,542 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="13">
-      <c r="A2" s="20" t="s">
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13">
-      <c r="A3" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="E29" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>9</v>
+      <c r="D30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
-    <hyperlink ref="C10" r:id="rId14"/>
-    <hyperlink ref="B11" r:id="rId15"/>
-    <hyperlink ref="C11" r:id="rId16"/>
-    <hyperlink ref="B12" r:id="rId17"/>
-    <hyperlink ref="C12" r:id="rId18"/>
-    <hyperlink ref="B13" r:id="rId19"/>
-    <hyperlink ref="C13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
-    <hyperlink ref="C14" r:id="rId22"/>
-    <hyperlink ref="B15" r:id="rId23"/>
-    <hyperlink ref="C15" r:id="rId24"/>
-    <hyperlink ref="B16" r:id="rId25"/>
-    <hyperlink ref="C16" r:id="rId26"/>
-    <hyperlink ref="B17" r:id="rId27"/>
-    <hyperlink ref="C17" r:id="rId28"/>
-    <hyperlink ref="B18" r:id="rId29"/>
-    <hyperlink ref="C18" r:id="rId30"/>
-    <hyperlink ref="B19" r:id="rId31"/>
-    <hyperlink ref="C19" r:id="rId32"/>
-    <hyperlink ref="B20" r:id="rId33"/>
-    <hyperlink ref="C20" r:id="rId34"/>
-    <hyperlink ref="B21" r:id="rId35"/>
-    <hyperlink ref="C21" r:id="rId36"/>
-    <hyperlink ref="B22" r:id="rId37"/>
-    <hyperlink ref="C22" r:id="rId38"/>
-    <hyperlink ref="B23" r:id="rId39"/>
-    <hyperlink ref="C23" r:id="rId40"/>
-    <hyperlink ref="B24" r:id="rId41"/>
-    <hyperlink ref="C24" r:id="rId42"/>
-    <hyperlink ref="B25" r:id="rId43"/>
-    <hyperlink ref="C25" r:id="rId44"/>
-    <hyperlink ref="B26" r:id="rId45"/>
-    <hyperlink ref="C26" r:id="rId46"/>
-    <hyperlink ref="B27" r:id="rId47"/>
-    <hyperlink ref="C27" r:id="rId48"/>
-    <hyperlink ref="B28" r:id="rId49"/>
-    <hyperlink ref="C28" r:id="rId50"/>
-    <hyperlink ref="B29" r:id="rId51"/>
-    <hyperlink ref="C29" r:id="rId52"/>
-    <hyperlink ref="B30" r:id="rId53"/>
-    <hyperlink ref="C30" r:id="rId54"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C29" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C30" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId55"/>
